--- a/nodes_source_analyses/bunkers/bunkers_kerosene_production_p2l.converter.xlsx
+++ b/nodes_source_analyses/bunkers/bunkers_kerosene_production_p2l.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/bunkers/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BAC297-E259-4846-9DC0-3D67903C4342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29020" yWindow="-10340" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
   <si>
     <t>Source</t>
   </si>
@@ -334,9 +341,6 @@
     <t>typical_input_capacity</t>
   </si>
   <si>
-    <t>included in initial_investment</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
@@ -546,24 +550,34 @@
   </si>
   <si>
     <t xml:space="preserve">Oxford Energy Institute </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1131,771 +1145,769 @@
   </borders>
   <cellStyleXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="496">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2393,13 +2405,16 @@
     <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2900,8 +2915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2910,50 +2925,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -2962,29 +2977,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="71"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="72" t="s">
         <v>26</v>
@@ -2993,33 +3008,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="72" t="s">
         <v>31</v>
@@ -3028,49 +3043,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="72"/>
       <c r="C17" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="72"/>
       <c r="C18" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="72"/>
       <c r="C19" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="80"/>
       <c r="C21" s="82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="80"/>
       <c r="C22" s="83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="80"/>
       <c r="C23" s="84" t="s">
         <v>39</v>
@@ -3083,77 +3098,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="34" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="34" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="176"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="36"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3164,7 +3179,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="25" customFormat="1">
       <c r="B9" s="23"/>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -3185,7 +3200,7 @@
       </c>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="25" customFormat="1">
       <c r="B10" s="24"/>
       <c r="C10" s="12"/>
       <c r="D10" s="32"/>
@@ -3196,7 +3211,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>42</v>
@@ -3209,130 +3224,130 @@
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="146" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="147"/>
-      <c r="C12" s="139" t="s">
+    <row r="12" spans="1:11" s="145" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="146"/>
+      <c r="C12" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="148">
+      <c r="D12" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="147">
         <f>'Research data'!H7</f>
         <v>10.654359256372805</v>
       </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="149"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="150"/>
-    </row>
-    <row r="13" spans="1:11" s="146" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="147"/>
-      <c r="C13" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="148">
+      <c r="F12" s="138"/>
+      <c r="G12" s="148"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="149"/>
+    </row>
+    <row r="13" spans="1:11" s="145" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B13" s="146"/>
+      <c r="C13" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="139"/>
+      <c r="E13" s="147">
         <f>'Research data'!H8</f>
         <v>0.35033447203974477</v>
       </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="149"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="150"/>
-    </row>
-    <row r="14" spans="1:11" s="146" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="147"/>
-      <c r="C14" s="165" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="148">
+      <c r="F13" s="138"/>
+      <c r="G13" s="148"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="149"/>
+    </row>
+    <row r="14" spans="1:11" s="145" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="146"/>
+      <c r="C14" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="139"/>
+      <c r="E14" s="147">
         <f>'Research data'!H9</f>
         <v>0.63278977088645771</v>
       </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="149"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="150"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="138"/>
+      <c r="G14" s="148"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="149"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="25"/>
       <c r="B15" s="24"/>
       <c r="C15" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="148">
+      <c r="E15" s="147">
         <f>'Research data'!H10</f>
         <v>1.6875757073797529E-2</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="93"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="135"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="13"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
-      <c r="C16" s="166" t="s">
-        <v>111</v>
+      <c r="C16" s="164" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="147">
         <f>'Research data'!H11</f>
         <v>0.76583932824392909</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="128"/>
       <c r="H16" s="93"/>
-      <c r="I16" s="135"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="97"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17" thickBot="1">
       <c r="B17" s="96"/>
       <c r="C17" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="148">
+      <c r="E17" s="147">
         <f>'Research data'!H13</f>
         <v>0.23416067175607091</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
-      <c r="I17" s="135"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="97"/>
     </row>
-    <row r="18" spans="1:11" s="137" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139" t="s">
+    <row r="18" spans="1:11" s="136" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B18" s="137"/>
+      <c r="C18" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="148">
+      <c r="E18" s="147">
         <f>'Research data'!H14</f>
         <v>8000</v>
       </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="143"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" s="39"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3343,7 +3358,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="39"/>
       <c r="C20" s="12" t="s">
         <v>41</v>
@@ -3356,7 +3371,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>21</v>
@@ -3364,7 +3379,7 @@
       <c r="D21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="145">
+      <c r="E21" s="144">
         <f>'Research data'!H17</f>
         <v>237556647.18469203</v>
       </c>
@@ -3376,7 +3391,7 @@
       <c r="I21" s="132"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B22" s="39"/>
       <c r="C22" s="38" t="s">
         <v>22</v>
@@ -3384,7 +3399,7 @@
       <c r="D22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="145">
+      <c r="E22" s="144">
         <f>'Research data'!H18</f>
         <v>11877832.359234599</v>
       </c>
@@ -3396,7 +3411,7 @@
       <c r="I22" s="132"/>
       <c r="J22" s="88"/>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1">
       <c r="B23" s="111"/>
       <c r="C23" s="117" t="s">
         <v>65</v>
@@ -3416,15 +3431,15 @@
       <c r="I23" s="132"/>
       <c r="J23" s="115"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="111"/>
       <c r="C24" s="117" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="113"/>
-      <c r="E24" s="40">
-        <f>'Research data'!H24</f>
-        <v>0</v>
+      <c r="E24" s="40" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F24" s="114"/>
       <c r="G24" s="117" t="s">
@@ -3434,14 +3449,14 @@
       <c r="I24" s="124"/>
       <c r="J24" s="115"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="111"/>
       <c r="C25" s="125" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="113"/>
       <c r="E25" s="40">
-        <f>'Research data'!H25</f>
+        <f>'Research data'!H24</f>
         <v>0</v>
       </c>
       <c r="F25" s="114"/>
@@ -3452,7 +3467,7 @@
       <c r="I25" s="133"/>
       <c r="J25" s="115"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
@@ -3461,18 +3476,20 @@
       <c r="D26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="173">
-        <v>0.04</v>
+      <c r="E26" s="171">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="93"/>
-      <c r="I26" s="135"/>
+      <c r="I26" s="134" t="s">
+        <v>143</v>
+      </c>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93" t="s">
@@ -3490,7 +3507,7 @@
       <c r="I27" s="94"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="93"/>
@@ -3502,7 +3519,7 @@
       <c r="I28" s="99"/>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="12" t="s">
@@ -3515,7 +3532,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="93" t="s">
@@ -3525,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="98">
-        <f>'Research data'!H28</f>
+        <f>'Research data'!H27</f>
         <v>30</v>
       </c>
       <c r="F30" s="93"/>
@@ -3536,7 +3553,7 @@
       <c r="I30" s="132"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="93" t="s">
@@ -3546,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="98">
-        <f>'Research data'!H29</f>
+        <f>'Research data'!H28</f>
         <v>0</v>
       </c>
       <c r="F31" s="93"/>
@@ -3557,7 +3574,7 @@
       <c r="I31" s="94"/>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="95"/>
       <c r="B32" s="96"/>
       <c r="C32" s="93" t="s">
@@ -3567,7 +3584,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="98">
-        <f>'Research data'!H30</f>
+        <f>'Research data'!H29</f>
         <v>0</v>
       </c>
       <c r="F32" s="93"/>
@@ -3575,10 +3592,10 @@
         <v>58</v>
       </c>
       <c r="H32" s="93"/>
-      <c r="I32" s="135"/>
+      <c r="I32" s="134"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="95"/>
       <c r="B33" s="96"/>
       <c r="C33" s="93" t="s">
@@ -3593,10 +3610,10 @@
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93"/>
-      <c r="I33" s="135"/>
+      <c r="I33" s="134"/>
       <c r="J33" s="97"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="95"/>
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
@@ -3608,7 +3625,7 @@
       <c r="I34" s="103"/>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="95"/>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
@@ -3620,7 +3637,7 @@
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -3632,7 +3649,7 @@
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="95"/>
       <c r="B37" s="95"/>
       <c r="C37" s="95"/>
@@ -3644,7 +3661,7 @@
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="95"/>
       <c r="B38" s="95"/>
       <c r="E38" s="95"/>
@@ -3654,7 +3671,7 @@
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="95"/>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -3666,7 +3683,7 @@
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="95"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
@@ -3678,7 +3695,7 @@
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -3690,7 +3707,7 @@
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="95"/>
@@ -3702,10 +3719,10 @@
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="95"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="95"/>
     </row>
   </sheetData>
@@ -3718,42 +3735,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:S31"/>
+  <dimension ref="A2:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="3" style="41" customWidth="1"/>
     <col min="3" max="3" width="61" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="41" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="41" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="41" customWidth="1"/>
     <col min="7" max="7" width="3" style="41" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="41" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="41" customWidth="1"/>
     <col min="17" max="17" width="11" style="41" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="41" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="41"/>
+    <col min="18" max="18" width="2.42578125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="17" thickBot="1"/>
+    <row r="3" spans="1:19">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -3773,7 +3790,7 @@
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
     </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="25" customFormat="1">
       <c r="B4" s="24"/>
       <c r="C4" s="85" t="s">
         <v>18</v>
@@ -3798,7 +3815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -3815,7 +3832,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="51"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="44"/>
       <c r="C6" s="12" t="s">
         <v>42</v>
@@ -3831,17 +3848,17 @@
       <c r="L6" s="10"/>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="44"/>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="140" t="s">
-        <v>78</v>
+      <c r="D7" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="147"/>
+      <c r="F7" s="139" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="129">
@@ -3849,7 +3866,7 @@
         <v>10.654359256372805</v>
       </c>
       <c r="I7" s="46"/>
-      <c r="J7" s="159">
+      <c r="J7" s="157">
         <f>Notes!E46</f>
         <v>10.654359256372805</v>
       </c>
@@ -3857,14 +3874,14 @@
       <c r="L7" s="46"/>
       <c r="M7" s="92"/>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="44"/>
-      <c r="C8" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="140" t="s">
+      <c r="C8" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="139" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="86"/>
@@ -3873,7 +3890,7 @@
         <v>0.35033447203974477</v>
       </c>
       <c r="I8" s="46"/>
-      <c r="J8" s="159">
+      <c r="J8" s="157">
         <f>Notes!E27</f>
         <v>0.35033447203974477</v>
       </c>
@@ -3881,11 +3898,11 @@
       <c r="L8" s="46"/>
       <c r="M8" s="92"/>
     </row>
-    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="165" t="s">
-        <v>110</v>
+      <c r="C9" s="163" t="s">
+        <v>109</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>2</v>
@@ -3899,17 +3916,17 @@
         <f t="shared" ref="H9:H13" si="0">J9</f>
         <v>0.63278977088645771</v>
       </c>
-      <c r="J9" s="159">
+      <c r="J9" s="157">
         <f>Notes!E28</f>
         <v>0.63278977088645771</v>
       </c>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A10" s="95"/>
       <c r="B10" s="96"/>
       <c r="C10" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>2</v>
@@ -3923,17 +3940,17 @@
         <f t="shared" si="0"/>
         <v>1.6875757073797529E-2</v>
       </c>
-      <c r="J10" s="159">
+      <c r="J10" s="157">
         <f>Notes!E29</f>
         <v>1.6875757073797529E-2</v>
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A11" s="95"/>
       <c r="B11" s="96"/>
-      <c r="C11" s="166" t="s">
-        <v>111</v>
+      <c r="C11" s="164" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>2</v>
@@ -3947,16 +3964,16 @@
         <f>J11+J12</f>
         <v>0.76583932824392909</v>
       </c>
-      <c r="J11" s="159">
+      <c r="J11" s="157">
         <f>Notes!E30</f>
         <v>0.46801292281573448</v>
       </c>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="96"/>
-      <c r="C12" s="166" t="s">
-        <v>112</v>
+      <c r="C12" s="164" t="s">
+        <v>111</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>2</v>
@@ -3967,18 +3984,18 @@
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="129"/>
-      <c r="J12" s="159">
+      <c r="J12" s="157">
         <f>Notes!E31</f>
         <v>0.29782640542819461</v>
       </c>
-      <c r="P12" s="172" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="170" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="96"/>
       <c r="C13" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="40"/>
@@ -3990,30 +4007,30 @@
         <f t="shared" si="0"/>
         <v>0.23416067175607091</v>
       </c>
-      <c r="J13" s="159">
+      <c r="J13" s="157">
         <f>Notes!E32</f>
         <v>0.23416067175607091</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140" t="s">
+      <c r="E14" s="140"/>
+      <c r="F14" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="160">
+      <c r="H14" s="158">
         <f t="shared" ref="H14" si="1">J14</f>
         <v>8000</v>
       </c>
       <c r="I14" s="93"/>
-      <c r="J14" s="157">
+      <c r="J14" s="155">
         <f>Notes!E19</f>
         <v>8000</v>
       </c>
@@ -4022,7 +4039,7 @@
       <c r="M14" s="116"/>
       <c r="N14" s="95"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="B15" s="44"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -4038,7 +4055,7 @@
       <c r="O15" s="46"/>
       <c r="P15" s="116"/>
     </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="17" thickBot="1">
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
       <c r="C16" s="12" t="s">
@@ -4057,7 +4074,7 @@
       <c r="O16" s="105"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="17" thickBot="1">
       <c r="A17" s="95"/>
       <c r="B17" s="96"/>
       <c r="C17" s="38" t="s">
@@ -4066,11 +4083,11 @@
       <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="145"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="156">
+      <c r="H17" s="154">
         <f>J17</f>
         <v>237556647.18469203</v>
       </c>
@@ -4086,7 +4103,7 @@
       <c r="O17" s="105"/>
       <c r="P17" s="92"/>
     </row>
-    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17" thickBot="1">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="38" t="s">
@@ -4113,7 +4130,7 @@
       <c r="K18" s="105"/>
       <c r="P18" s="92"/>
     </row>
-    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17" thickBot="1">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="117" t="s">
@@ -4140,7 +4157,7 @@
       <c r="O19" s="105"/>
       <c r="P19" s="108"/>
     </row>
-    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="17" thickBot="1">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="117" t="s">
@@ -4163,7 +4180,7 @@
       <c r="O20" s="105"/>
       <c r="P20" s="108"/>
     </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="17" thickBot="1">
       <c r="A21" s="95"/>
       <c r="B21" s="96"/>
       <c r="C21" s="117" t="s">
@@ -4186,7 +4203,7 @@
       <c r="O21" s="100"/>
       <c r="P21" s="108"/>
     </row>
-    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="17" thickBot="1">
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="125" t="s">
@@ -4209,7 +4226,7 @@
       <c r="O22" s="100"/>
       <c r="P22" s="108"/>
     </row>
-    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="17" thickBot="1">
       <c r="A23" s="119"/>
       <c r="B23" s="120"/>
       <c r="C23" s="117" t="s">
@@ -4234,97 +4251,92 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="151" t="s">
-        <v>48</v>
+    <row r="24" spans="1:16" ht="17" thickBot="1">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="93" t="s">
+        <v>51</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E24" s="98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="121">
+        <v>52</v>
+      </c>
+      <c r="H24" s="107">
         <f>J24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="134" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="98">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="107">
+      <c r="I24" s="100"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="108"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1">
+      <c r="A25" s="119"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="121">
         <f>J25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="108"/>
-    </row>
-    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="22"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1">
+      <c r="C26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="89"/>
       <c r="E26" s="101"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="121">
-        <f>J26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="116" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="89"/>
-      <c r="H27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
+      <c r="F26" s="89"/>
+      <c r="H26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" spans="1:16" ht="17" thickBot="1">
+      <c r="B27" s="44"/>
+      <c r="C27" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="98"/>
+      <c r="F27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="107">
+        <f>J27</f>
+        <v>30</v>
+      </c>
+      <c r="J27" s="157">
+        <f>Notes!E18</f>
+        <v>30</v>
+      </c>
+      <c r="P27" s="92"/>
+    </row>
+    <row r="28" spans="1:16" ht="17" thickBot="1">
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="93" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>1</v>
@@ -4334,91 +4346,68 @@
         <v>1</v>
       </c>
       <c r="H28" s="107">
-        <f>J28</f>
-        <v>30</v>
-      </c>
-      <c r="J28" s="159">
-        <f>Notes!E18</f>
-        <v>30</v>
-      </c>
-      <c r="P28" s="92"/>
-    </row>
-    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="116"/>
+    </row>
+    <row r="29" spans="1:16" ht="17" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="98"/>
+        <v>54</v>
+      </c>
+      <c r="E29" s="109"/>
       <c r="F29" s="22" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H29" s="107">
         <v>0</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="106"/>
       <c r="P29" s="116"/>
     </row>
-    <row r="30" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="17" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="93" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="109"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="98">
+        <v>0</v>
+      </c>
       <c r="F30" s="22" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H30" s="107">
         <v>0</v>
       </c>
-      <c r="I30" s="105"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="105"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="105"/>
       <c r="M30" s="105"/>
       <c r="N30" s="105"/>
       <c r="O30" s="106"/>
       <c r="P30" s="116"/>
-    </row>
-    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="98">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="107">
-        <v>0</v>
-      </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4427,33 +4416,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="78" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="57" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="53"/>
+    <col min="8" max="8" width="12.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4464,7 +4453,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="56"/>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -4477,7 +4466,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="56"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4488,7 +4477,7 @@
       <c r="I4" s="59"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="60"/>
       <c r="C5" s="14" t="s">
         <v>15</v>
@@ -4503,7 +4492,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>17</v>
@@ -4515,64 +4504,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="183" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="183" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="172" t="s">
         <v>137</v>
+      </c>
+      <c r="E7" s="172" t="s">
+        <v>136</v>
       </c>
       <c r="F7" s="53">
         <v>2016</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="183" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="D8" s="172" t="s">
+        <v>139</v>
       </c>
       <c r="F8" s="53">
         <v>2013</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="183" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="172" t="s">
         <v>142</v>
+      </c>
+      <c r="E9" s="172" t="s">
+        <v>141</v>
       </c>
       <c r="F9" s="53">
         <v>2013</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O254"/>
@@ -4581,22 +4570,22 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="61" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="61" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="61" customWidth="1"/>
     <col min="4" max="4" width="19" style="61" customWidth="1"/>
     <col min="5" max="5" width="17" style="61" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="61" customWidth="1"/>
-    <col min="7" max="13" width="10.83203125" style="61"/>
-    <col min="14" max="14" width="15.6640625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="61"/>
-    <col min="16" max="16" width="12.1640625" style="61" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="61"/>
+    <col min="6" max="6" width="6.140625" style="61" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="61"/>
+    <col min="14" max="14" width="15.7109375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="61"/>
+    <col min="16" max="16" width="12.140625" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="10.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -4611,7 +4600,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="90"/>
       <c r="C3" s="69" t="s">
@@ -4633,14 +4622,14 @@
       <c r="M3" s="66"/>
       <c r="N3" s="91"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" customHeight="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -4649,16 +4638,16 @@
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" customHeight="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -4667,16 +4656,16 @@
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="152"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -4685,20 +4674,20 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="152"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="68">
         <v>2.016</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -4706,20 +4695,20 @@
       <c r="M7" s="68"/>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" customHeight="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="152"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="68">
         <v>28</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -4727,20 +4716,20 @@
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" customHeight="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="152"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="68">
         <v>44</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -4748,21 +4737,21 @@
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" customHeight="1">
       <c r="A10" s="65"/>
-      <c r="B10" s="152"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="68">
         <f>12*11+1.008*24</f>
         <v>156.19200000000001</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -4770,20 +4759,20 @@
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" customHeight="1">
       <c r="A11" s="65"/>
-      <c r="B11" s="152"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="68">
         <v>32</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
@@ -4791,20 +4780,20 @@
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="65"/>
-      <c r="B12" s="152"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="68">
         <v>32.031999999999996</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+        <v>85</v>
+      </c>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -4812,24 +4801,24 @@
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" customHeight="1">
       <c r="A13" s="65"/>
-      <c r="B13" s="152"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="68">
         <f>2*12+6*1.008+16</f>
         <v>46.048000000000002</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="68">
         <v>0.78900000000000003</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -4838,9 +4827,9 @@
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" customHeight="1">
       <c r="A14" s="65"/>
-      <c r="B14" s="152"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="68"/>
       <c r="E14" s="68"/>
       <c r="F14" s="68"/>
@@ -4853,17 +4842,17 @@
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" customHeight="1">
       <c r="A15" s="65"/>
-      <c r="B15" s="152"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="61">
         <v>0.747</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
@@ -4874,11 +4863,11 @@
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" customHeight="1">
       <c r="A16" s="65"/>
-      <c r="B16" s="152"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="61">
         <v>0.05</v>
@@ -4893,14 +4882,14 @@
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="17" customHeight="1">
       <c r="A17" s="65"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
@@ -4909,19 +4898,19 @@
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="17" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="152"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="68">
         <v>30</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4931,19 +4920,19 @@
       <c r="M18" s="68"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="17" customHeight="1">
       <c r="A19" s="65"/>
-      <c r="B19" s="163"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="153"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="68">
         <v>8000</v>
       </c>
-      <c r="F19" s="153"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
@@ -4953,19 +4942,19 @@
       <c r="M19" s="68"/>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="17" customHeight="1">
       <c r="A20" s="65"/>
-      <c r="B20" s="163"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="153"/>
+        <v>78</v>
+      </c>
+      <c r="D20" s="151"/>
       <c r="E20" s="68">
         <v>10.01</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
@@ -4975,17 +4964,17 @@
       <c r="M20" s="68"/>
       <c r="N20" s="68"/>
     </row>
-    <row r="21" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="17" customHeight="1">
       <c r="A21" s="65"/>
-      <c r="B21" s="163"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="68">
         <v>120.1</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -4995,17 +4984,17 @@
       <c r="M21" s="68"/>
       <c r="N21" s="68"/>
     </row>
-    <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="17" customHeight="1">
       <c r="A22" s="65"/>
-      <c r="B22" s="163"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="68">
         <v>43.15</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
@@ -5015,7 +5004,7 @@
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="65"/>
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
@@ -5026,7 +5015,7 @@
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24" s="62"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
@@ -5041,7 +5030,7 @@
       <c r="M24" s="63"/>
       <c r="N24" s="64"/>
     </row>
-    <row r="25" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="17" customHeight="1">
       <c r="A25" s="65"/>
       <c r="B25" s="90"/>
       <c r="C25" s="69"/>
@@ -5057,16 +5046,16 @@
       <c r="M25" s="66"/>
       <c r="N25" s="91"/>
     </row>
-    <row r="26" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="17" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
@@ -5075,19 +5064,19 @@
       <c r="M26" s="68"/>
       <c r="N26" s="68"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="65"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="164">
+      <c r="B27" s="150"/>
+      <c r="C27" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="162">
         <f>E20*E34/(E20*E34+E35/E10*E7*23*E21+E53*3.6)</f>
         <v>0.35033447203974477</v>
       </c>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
@@ -5096,13 +5085,13 @@
       <c r="M27" s="68"/>
       <c r="N27" s="68"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="B28" s="67"/>
-      <c r="C28" s="165" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="154">
+      <c r="C28" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="135"/>
+      <c r="E28" s="152">
         <f>E35/E10*E7*23*E21/(E20*E34+E35/E10*E7*23*E21+E53*3.6)</f>
         <v>0.63278977088645771</v>
       </c>
@@ -5117,59 +5106,59 @@
       <c r="N28" s="68"/>
       <c r="O28" s="68"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="B29" s="67"/>
       <c r="C29" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="154">
+        <v>75</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="152">
         <f>E53*3.6/(E20*E34+E35/E10*E7*23*E21+E53*3.6)</f>
         <v>1.6875757073797529E-2</v>
       </c>
       <c r="N29" s="68"/>
       <c r="O29" s="68"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="B30" s="67"/>
-      <c r="C30" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="169">
+      <c r="C30" s="164" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="135"/>
+      <c r="E30" s="167">
         <f>0.55/0.9*E35*E22/(E20*E34+E35/E10*E7*23*E21+E53*3.6)</f>
         <v>0.46801292281573448</v>
       </c>
       <c r="N30" s="68"/>
       <c r="O30" s="68"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="B31" s="67"/>
-      <c r="C31" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="169">
+      <c r="C31" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="153"/>
+      <c r="E31" s="167">
         <f>0.35/0.9*E35*E22/(E20*E34+E35/E10*E7*23*E21+E53*3.6)</f>
         <v>0.29782640542819461</v>
       </c>
       <c r="N31" s="68"/>
       <c r="O31" s="68"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="B32" s="67"/>
       <c r="C32" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="68"/>
-      <c r="E32" s="164">
+      <c r="E32" s="162">
         <f>1-E31-E30</f>
         <v>0.23416067175607091</v>
       </c>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -5185,20 +5174,20 @@
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="65"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="153"/>
-      <c r="E34" s="168">
+      <c r="B34" s="151"/>
+      <c r="C34" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="151"/>
+      <c r="E34" s="166">
         <f>1/E9*E8</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153" t="s">
-        <v>116</v>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151" t="s">
+        <v>115</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
@@ -5209,18 +5198,18 @@
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="65"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="168">
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="166">
         <f>E34/E8/11*E10</f>
         <v>0.32271074380165293</v>
       </c>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153" t="s">
-        <v>117</v>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151" t="s">
+        <v>116</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
@@ -5231,11 +5220,11 @@
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="B36" s="68"/>
-      <c r="C36" s="153"/>
+      <c r="C36" s="151"/>
       <c r="D36" s="68"/>
-      <c r="E36" s="167"/>
+      <c r="E36" s="165"/>
       <c r="F36" s="68"/>
       <c r="G36" s="68"/>
       <c r="H36" s="68"/>
@@ -5247,13 +5236,13 @@
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="B37" s="68"/>
-      <c r="C37" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="162"/>
-      <c r="E37" s="171">
+      <c r="C37" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="160"/>
+      <c r="E37" s="169">
         <v>8000</v>
       </c>
       <c r="F37" s="68"/>
@@ -5267,19 +5256,19 @@
       <c r="N37" s="68"/>
       <c r="O37" s="68"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="B38" s="68"/>
       <c r="C38" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="167">
+        <v>117</v>
+      </c>
+      <c r="D38" s="160"/>
+      <c r="E38" s="165">
         <f>E35/(E37/8760)/365.25</f>
         <v>9.6746958100700888E-4</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
@@ -5290,17 +5279,17 @@
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="B39" s="68"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="168">
+      <c r="C39" s="151"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="166">
         <f>E38/E15/159*1000</f>
         <v>8.1455345996734006E-3</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
@@ -5311,7 +5300,7 @@
       <c r="N39" s="68"/>
       <c r="O39" s="68"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="B40" s="68"/>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
@@ -5327,17 +5316,17 @@
       <c r="N40" s="68"/>
       <c r="O40" s="68"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="B41" s="68"/>
       <c r="C41" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="68"/>
-      <c r="E41" s="167"/>
+      <c r="E41" s="165"/>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="68"/>
       <c r="J41" s="68"/>
@@ -5347,10 +5336,10 @@
       <c r="N41" s="68"/>
       <c r="O41" s="68"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="B42" s="68"/>
       <c r="C42" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="68">
@@ -5359,10 +5348,10 @@
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="68"/>
       <c r="J42" s="68"/>
@@ -5372,10 +5361,10 @@
       <c r="N42" s="68"/>
       <c r="O42" s="68"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="B43" s="68"/>
       <c r="C43" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="68">
@@ -5384,10 +5373,10 @@
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="68" t="s">
         <v>125</v>
-      </c>
-      <c r="H43" s="68" t="s">
-        <v>126</v>
       </c>
       <c r="I43" s="68"/>
       <c r="J43" s="68"/>
@@ -5397,14 +5386,14 @@
       <c r="N43" s="68"/>
       <c r="O43" s="68"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="65"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
       <c r="J44" s="68"/>
@@ -5414,16 +5403,16 @@
       <c r="N44" s="68"/>
       <c r="O44" s="68"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="65"/>
-      <c r="B45" s="152"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
+        <v>126</v>
+      </c>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="68"/>
@@ -5433,19 +5422,19 @@
       <c r="N45" s="68"/>
       <c r="O45" s="68"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="B46" s="67"/>
-      <c r="C46" s="153" t="s">
-        <v>123</v>
+      <c r="C46" s="151" t="s">
+        <v>122</v>
       </c>
       <c r="D46" s="68"/>
-      <c r="E46" s="153">
+      <c r="E46" s="151">
         <f>E42*E39*1000/50</f>
         <v>10.654359256372805</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
@@ -5456,85 +5445,85 @@
       <c r="N46" s="68"/>
       <c r="O46" s="68"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="B47" s="67"/>
-      <c r="C47" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="162"/>
-      <c r="E47" s="153">
+      <c r="C47" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="160"/>
+      <c r="E47" s="151">
         <f>E39*1000/50*E43*1000/1.18</f>
         <v>237.55664718469203</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="B48" s="67"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="162"/>
-      <c r="E48" s="153">
+      <c r="C48" s="151"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="151">
         <f>E47*1000000</f>
         <v>237556647.18469203</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="67"/>
-      <c r="C49" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="162"/>
-      <c r="E49" s="170">
+      <c r="C49" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="160"/>
+      <c r="E49" s="168">
         <v>5</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="67"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="153">
+      <c r="C50" s="151"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="151">
         <f>E48*E49/100</f>
         <v>11877832.359234599</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="67"/>
-      <c r="C51" s="153" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="164"/>
-      <c r="E51" s="153">
+      <c r="C51" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="162"/>
+      <c r="E51" s="151">
         <f>$AS$15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="67"/>
-      <c r="C52" s="153" t="s">
+      <c r="C52" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="168">
+        <v>30</v>
+      </c>
+      <c r="G52" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="170">
-        <v>30</v>
-      </c>
-      <c r="G52" s="61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="67"/>
       <c r="C53" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="68"/>
       <c r="E53" s="68">
@@ -5542,660 +5531,660 @@
         <v>8.5234874050982443E-2</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="67"/>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
       <c r="E54" s="68"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="67"/>
       <c r="C55" s="68"/>
       <c r="E55" s="110"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="67"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="67"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58" s="67"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="67"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60" s="67"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="67"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="67"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="67"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="67"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65" s="67"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66" s="67"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67" s="67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68" s="67"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69" s="67"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70" s="67"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71" s="67"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72" s="67"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73" s="67"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74" s="67"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75" s="67"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76" s="67"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77" s="67"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2">
       <c r="B78" s="67"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2">
       <c r="B79" s="67"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2">
       <c r="B80" s="67"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2">
       <c r="B81" s="67"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="67"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2">
       <c r="B83" s="67"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2">
       <c r="B84" s="67"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2">
       <c r="B85" s="67"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2">
       <c r="B86" s="67"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2">
       <c r="B87" s="67"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2">
       <c r="B88" s="67"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2">
       <c r="B89" s="67"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2">
       <c r="B90" s="67"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2">
       <c r="B91" s="67"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2">
       <c r="B92" s="67"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2">
       <c r="B93" s="67"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2">
       <c r="B94" s="67"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2">
       <c r="B95" s="67"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2">
       <c r="B96" s="67"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="67"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="67"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="67"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="67"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="67"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="67"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="67"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="127"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="127"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="127"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="127"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="127"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="127"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="127"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="127"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="127"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="127"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="127"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="127"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="127"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="127"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="127"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="127"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="127"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="127"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="127"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="127"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="127"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="127"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="127"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="127"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="127"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="127"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="127"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="127"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="127"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="127"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="127"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="127"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="127"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="127"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="127"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="127"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="127"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="127"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="127"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="127"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="B145" s="127"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="B146" s="127"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="B147" s="127"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="B148" s="127"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="B149" s="127"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="B150" s="127"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="B151" s="127"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="B152" s="127"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="B153" s="127"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="B154" s="127"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="B155" s="127"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="B156" s="127"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="126"/>
       <c r="B157" s="127"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="126"/>
       <c r="B158" s="127"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="126"/>
       <c r="B159" s="127"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="126"/>
       <c r="B160" s="127"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="126"/>
       <c r="B161" s="127"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="126"/>
       <c r="B162" s="127"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="126"/>
       <c r="B163" s="127"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="126"/>
       <c r="B164" s="127"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="126"/>
       <c r="B165" s="127"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="126"/>
       <c r="B166" s="127"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="126"/>
       <c r="B167" s="127"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="126"/>
       <c r="B168" s="127"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="126"/>
       <c r="B169" s="127"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="126"/>
       <c r="B170" s="127"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="126"/>
       <c r="B171" s="127"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="126"/>
       <c r="B172" s="127"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="126"/>
       <c r="B173" s="127"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="126"/>
       <c r="B174" s="127"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="126"/>
       <c r="B175" s="127"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="126"/>
       <c r="B176" s="127"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="126"/>
       <c r="B177" s="127"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="126"/>
       <c r="B178" s="127"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="126"/>
       <c r="B179" s="127"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="126"/>
       <c r="B180" s="127"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="126"/>
       <c r="B181" s="127"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="126"/>
       <c r="B182" s="127"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="126"/>
       <c r="B183" s="127"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="126"/>
       <c r="B184" s="127"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="126"/>
       <c r="B185" s="127"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="126"/>
       <c r="B186" s="127"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="126"/>
       <c r="B187" s="127"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="126"/>
       <c r="B188" s="127"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="126"/>
       <c r="B189" s="127"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="126"/>
       <c r="B190" s="127"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="126"/>
       <c r="B191" s="127"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="126"/>
       <c r="B192" s="127"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="126"/>
       <c r="B193" s="127"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="126"/>
       <c r="B194" s="127"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="126"/>
       <c r="B195" s="127"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="126"/>
       <c r="B196" s="127"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="126"/>
       <c r="B197" s="127"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="126"/>
       <c r="B198" s="127"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="126"/>
       <c r="B199" s="127"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="126"/>
       <c r="B200" s="127"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="126"/>
       <c r="B201" s="127"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="126"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="126"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="126"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="126"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="126"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="126"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="126"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="126"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="126"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="126"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="126"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="126"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="126"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="126"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="126"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="126"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="126"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="126"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="126"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="126"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="126"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="126"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="126"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="126"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="126"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="126"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="126"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="126"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" s="126"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" s="126"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="126"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" s="126"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="126"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="126"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="126"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="126"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="126"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="126"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="126"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="126"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="126"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="126"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="126"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="126"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="126"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="126"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="126"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="126"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="126"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="126"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="126"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="126"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="126"/>
     </row>
   </sheetData>
